--- a/data/trans_orig/P1415-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>9755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4134</v>
+        <v>4121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21061</v>
+        <v>20937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02231238517734216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009454609329518743</v>
+        <v>0.009426012883098552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04817114655782136</v>
+        <v>0.04788689517843225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>3015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8816</v>
+        <v>8154</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0095870105252006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00313306726123592</v>
+        <v>0.003144358459475457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02803641516833854</v>
+        <v>0.02592940417603521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>12770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6154</v>
+        <v>6409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23947</v>
+        <v>24926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01698880616694737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008186995022642099</v>
+        <v>0.008526786370415512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03185817283900971</v>
+        <v>0.03316059187710143</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>427456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>416150</v>
+        <v>416274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>433077</v>
+        <v>433090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9776876148226579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9518288534421786</v>
+        <v>0.9521131048215682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905453906704813</v>
+        <v>0.9905739871169015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -834,19 +834,19 @@
         <v>311439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>305638</v>
+        <v>306300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313469</v>
+        <v>313465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9904129894747994</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9719635848316613</v>
+        <v>0.9740705958239647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996866932738764</v>
+        <v>0.9968556415405245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -855,19 +855,19 @@
         <v>738895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>727718</v>
+        <v>726739</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745511</v>
+        <v>745256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9830111938330526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9681418271609901</v>
+        <v>0.9668394081228994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918130049773577</v>
+        <v>0.9914732136295845</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3268</v>
+        <v>3641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16575</v>
+        <v>18418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0196071451176213</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007803129851564937</v>
+        <v>0.008693188104870294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03957774933823122</v>
+        <v>0.04397866002436433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -980,19 +980,19 @@
         <v>4897</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10766</v>
+        <v>10279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0144871488679997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005352583861749007</v>
+        <v>0.005363829659441059</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03185148802654137</v>
+        <v>0.03041070501997657</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1001,19 +1001,19 @@
         <v>13108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6895</v>
+        <v>7135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23392</v>
+        <v>23264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01732041528904311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009110325479429393</v>
+        <v>0.009428184889287684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03090882855688165</v>
+        <v>0.03074026121970712</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>410586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402222</v>
+        <v>400379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415529</v>
+        <v>415156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9803928548823787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9604222506617688</v>
+        <v>0.9560213399756357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921968701484351</v>
+        <v>0.9913068118951298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1051,19 +1051,19 @@
         <v>333114</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327245</v>
+        <v>327732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336202</v>
+        <v>336198</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9855128511320003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9681485119734585</v>
+        <v>0.9695892949800218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9946474161382506</v>
+        <v>0.994636170340559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -1072,19 +1072,19 @@
         <v>743700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>733416</v>
+        <v>733544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>749913</v>
+        <v>749673</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9826795847109568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9690911714431188</v>
+        <v>0.969259738780293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9908896745205708</v>
+        <v>0.9905718151107124</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>9820</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4771</v>
+        <v>4874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18537</v>
+        <v>18939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0156016133081104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007580643781304273</v>
+        <v>0.007743403107836237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02945077943253665</v>
+        <v>0.03009002325524643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1200,16 +1200,16 @@
         <v>991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8260</v>
+        <v>8429</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01182290946360514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00380892204675861</v>
+        <v>0.003809625447535377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03175392955060726</v>
+        <v>0.03240138857615285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1218,19 +1218,19 @@
         <v>12895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6971</v>
+        <v>6630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22765</v>
+        <v>21237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01449660692139899</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00783633665365592</v>
+        <v>0.007453368755518402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02559219560162271</v>
+        <v>0.02387375535781993</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>619595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610878</v>
+        <v>610476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>624644</v>
+        <v>624541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843983866918896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9705492205674636</v>
+        <v>0.9699099767447539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9924193562186959</v>
+        <v>0.9922565968921638</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1268,7 +1268,7 @@
         <v>257054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251869</v>
+        <v>251700</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>259138</v>
@@ -1277,10 +1277,10 @@
         <v>0.9881770905363949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9682460704493927</v>
+        <v>0.9675986114238485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961910779532415</v>
+        <v>0.9961903745524646</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -1289,19 +1289,19 @@
         <v>876649</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>866779</v>
+        <v>868307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>882573</v>
+        <v>882914</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.985503393078601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9744078043983772</v>
+        <v>0.9761262446421802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.992163663346344</v>
+        <v>0.9925466312444829</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>20207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11881</v>
+        <v>12806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32052</v>
+        <v>31154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01743482754847528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01025078629843527</v>
+        <v>0.01104913578679688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02765447732813684</v>
+        <v>0.02688018371401625</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1414,19 +1414,19 @@
         <v>5427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1667</v>
+        <v>947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13355</v>
+        <v>14447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007096191999639013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002179657732760937</v>
+        <v>0.001237829646380781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01746425243966044</v>
+        <v>0.01889189742379054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1435,19 +1435,19 @@
         <v>25634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16129</v>
+        <v>16519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38658</v>
+        <v>39425</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01332501061792861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00838417222892595</v>
+        <v>0.008587059700421807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02009537586472708</v>
+        <v>0.02049427858190601</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1138802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1126957</v>
+        <v>1127855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147128</v>
+        <v>1146203</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9825651724515247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.972345522671863</v>
+        <v>0.9731198162859833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9897492137015647</v>
+        <v>0.9889508642132031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>706</v>
@@ -1485,19 +1485,19 @@
         <v>759295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>751367</v>
+        <v>750275</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>763055</v>
+        <v>763775</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9929038080003609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9825357475603391</v>
+        <v>0.9811081025762088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.997820342267239</v>
+        <v>0.9987621703536192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1771</v>
@@ -1506,19 +1506,19 @@
         <v>1898097</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885073</v>
+        <v>1884306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1907602</v>
+        <v>1907212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9866749893820714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9799046241352729</v>
+        <v>0.9795057214180942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991615827771074</v>
+        <v>0.9914129402995782</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>6152</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2103</v>
+        <v>2137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13299</v>
+        <v>13553</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01204821695068737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004119339302907429</v>
+        <v>0.004185390518470365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02604514857376509</v>
+        <v>0.02654318069308149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1631,19 +1631,19 @@
         <v>9290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4151</v>
+        <v>4303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17147</v>
+        <v>16876</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.012219843856716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005460615111098463</v>
+        <v>0.005660182231315829</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02255473776249291</v>
+        <v>0.02219788608675342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1652,19 +1652,19 @@
         <v>15442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9209</v>
+        <v>8351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24560</v>
+        <v>25801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01215088798359942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007246348035479088</v>
+        <v>0.006571358015153118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01932569772063994</v>
+        <v>0.02030237777012308</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>504444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497297</v>
+        <v>497043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508493</v>
+        <v>508459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879517830493126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9739548514262348</v>
+        <v>0.9734568193069184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958806606970926</v>
+        <v>0.9958146094815297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>693</v>
@@ -1702,19 +1702,19 @@
         <v>750956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>743099</v>
+        <v>743370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>756095</v>
+        <v>755943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.987780156143284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9774452622375071</v>
+        <v>0.9778021139132465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9945393848889015</v>
+        <v>0.9943398177686842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1174</v>
@@ -1723,19 +1723,19 @@
         <v>1255401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1246283</v>
+        <v>1245042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1261634</v>
+        <v>1262492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9878491120164006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9806743022793598</v>
+        <v>0.979697622229877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9927536519645209</v>
+        <v>0.9934286419848468</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>2825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7602</v>
+        <v>7816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01058460151425047</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003221607472326093</v>
+        <v>0.003230095959720374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02848307515305781</v>
+        <v>0.02928808289509465</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1848,19 +1848,19 @@
         <v>11425</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6043</v>
+        <v>5928</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20484</v>
+        <v>19883</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0102988937304173</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005447390403246562</v>
+        <v>0.005344079461992818</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01846475693977084</v>
+        <v>0.01792265417815301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1869,19 +1869,19 @@
         <v>14250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7383</v>
+        <v>8162</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23082</v>
+        <v>23902</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01035429876256085</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005364441839918665</v>
+        <v>0.005930649628337652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01677218203286331</v>
+        <v>0.01736768457841245</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>264057</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259280</v>
+        <v>259066</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266022</v>
+        <v>266020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9894153984857496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9715169248469422</v>
+        <v>0.9707119171049052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967783925276739</v>
+        <v>0.9967699040402797</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1033</v>
@@ -1919,19 +1919,19 @@
         <v>1097926</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1088867</v>
+        <v>1089468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1103308</v>
+        <v>1103423</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9897011062695827</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9815352430602291</v>
+        <v>0.9820773458218469</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9945526095967534</v>
+        <v>0.9946559205380071</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1295</v>
@@ -1940,19 +1940,19 @@
         <v>1361983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1353151</v>
+        <v>1352331</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1368850</v>
+        <v>1368071</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9896457012374391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9832278179671361</v>
+        <v>0.9826323154215882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946355581600809</v>
+        <v>0.9940693503716623</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>56970</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41766</v>
+        <v>42358</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76298</v>
+        <v>74061</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01664867086727203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01220553724864563</v>
+        <v>0.01237844197538091</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02229679045267767</v>
+        <v>0.02164322948566341</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2065,19 +2065,19 @@
         <v>37129</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25976</v>
+        <v>26730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51521</v>
+        <v>50830</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01046790862232479</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00732363401906059</v>
+        <v>0.007536138190495429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01452561678989511</v>
+        <v>0.01433082068068757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2086,19 +2086,19 @@
         <v>94099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76658</v>
+        <v>75809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116825</v>
+        <v>116944</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01350285542865192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01100018182559786</v>
+        <v>0.01087824172428909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01676398744882692</v>
+        <v>0.01678095804564635</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3364940</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3345612</v>
+        <v>3347849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380144</v>
+        <v>3379552</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9833513291327279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.977703209547322</v>
+        <v>0.9783567705143364</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9877944627513544</v>
+        <v>0.9876215580246189</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3253</v>
@@ -2136,19 +2136,19 @@
         <v>3509786</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3495394</v>
+        <v>3496085</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3520939</v>
+        <v>3520185</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9895320913776752</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9854743832101049</v>
+        <v>0.9856691793193124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9926763659809394</v>
+        <v>0.9924638618095046</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6408</v>
@@ -2157,19 +2157,19 @@
         <v>6874726</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6852000</v>
+        <v>6851881</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6892167</v>
+        <v>6893016</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9864971445713481</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9832360125511733</v>
+        <v>0.9832190419543537</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9889998181744022</v>
+        <v>0.989121758275711</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>9755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4511</v>
+        <v>4730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17222</v>
+        <v>18717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02273408639085476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01051305068078841</v>
+        <v>0.01102417273990898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04013554401263358</v>
+        <v>0.0436197547272974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2524,19 +2524,19 @@
         <v>7131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3111</v>
+        <v>3025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14484</v>
+        <v>15027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02054857424183163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008963928103414922</v>
+        <v>0.008715227590423489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0417332860199672</v>
+        <v>0.04329718883035912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2545,19 +2545,19 @@
         <v>16887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9689</v>
+        <v>10103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26142</v>
+        <v>27228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02175683234523953</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01248361531857045</v>
+        <v>0.0130167287860611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03368171219193786</v>
+        <v>0.03508140317054665</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>419337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411870</v>
+        <v>410375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424581</v>
+        <v>424362</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9772659136091453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9598644559873664</v>
+        <v>0.9563802452727026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9894869493192117</v>
+        <v>0.988975827260091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -2595,19 +2595,19 @@
         <v>339924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332571</v>
+        <v>332028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343944</v>
+        <v>344030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9794514257581683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9582667139800334</v>
+        <v>0.9567028111696408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.991036071896585</v>
+        <v>0.9912847724095765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>712</v>
@@ -2616,19 +2616,19 @@
         <v>759260</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>750005</v>
+        <v>748919</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766458</v>
+        <v>766044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9782431676547605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9663182878080628</v>
+        <v>0.9649185968294534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875163846814295</v>
+        <v>0.9869832712139389</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>5205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1907</v>
+        <v>1886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11344</v>
+        <v>12110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01379683115790191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005054798095258827</v>
+        <v>0.004999150513251139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03007218752656705</v>
+        <v>0.03210303075781803</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2741,19 +2741,19 @@
         <v>5485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1904</v>
+        <v>1821</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12934</v>
+        <v>12186</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01473277571496124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005115213417842203</v>
+        <v>0.004892099217898663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03474336970035331</v>
+        <v>0.03273498012818446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2762,19 +2762,19 @@
         <v>10689</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5434</v>
+        <v>5068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19578</v>
+        <v>18925</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01426171043324206</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007250614724035842</v>
+        <v>0.006762332810423607</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02612113319889989</v>
+        <v>0.02524993757245467</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>372022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365883</v>
+        <v>365117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375320</v>
+        <v>375341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862031688420981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.96992781247343</v>
+        <v>0.967896969242182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949452019047411</v>
+        <v>0.9950008494867488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -2812,19 +2812,19 @@
         <v>366788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359339</v>
+        <v>360087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370369</v>
+        <v>370452</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852672242850388</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9652566302996468</v>
+        <v>0.9672650198718156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994884786582158</v>
+        <v>0.9951079007821013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -2833,19 +2833,19 @@
         <v>738811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729922</v>
+        <v>730575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744066</v>
+        <v>744432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9857382895667579</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9738788668011001</v>
+        <v>0.9747500624275454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9927493852759641</v>
+        <v>0.9932376671895764</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>4383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1094</v>
+        <v>943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12523</v>
+        <v>10988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008397182100224946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002095935067180913</v>
+        <v>0.001806772962724212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02399467700585061</v>
+        <v>0.02105276327236269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2961,16 +2961,16 @@
         <v>954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8521</v>
+        <v>8636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01914143335511703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005743091108357976</v>
+        <v>0.005744988444485464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05129352681464855</v>
+        <v>0.05198646682792056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2979,19 +2979,19 @@
         <v>7562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3178</v>
+        <v>3146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16239</v>
+        <v>14318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01099132523082431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004619476524575097</v>
+        <v>0.004572768115322228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02360235973689771</v>
+        <v>0.02080941049175718</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>517531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>509391</v>
+        <v>510926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520820</v>
+        <v>520971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.991602817899775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9760053229941498</v>
+        <v>0.9789472367276373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979040649328191</v>
+        <v>0.9981932270372758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -3029,7 +3029,7 @@
         <v>162943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157602</v>
+        <v>157487</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>165169</v>
@@ -3038,10 +3038,10 @@
         <v>0.980858566644883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9487064731853514</v>
+        <v>0.9480135331720794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.994256908891642</v>
+        <v>0.9942550115555144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -3050,19 +3050,19 @@
         <v>680474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671797</v>
+        <v>673718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684858</v>
+        <v>684890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9890086747691756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763976402631024</v>
+        <v>0.9791905895082429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953805234754249</v>
+        <v>0.9954272318846779</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>12596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7129</v>
+        <v>6968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21524</v>
+        <v>21839</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0109561625328482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006201456964467815</v>
+        <v>0.006061013986319435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01872245684111064</v>
+        <v>0.01899655187375848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3175,19 +3175,19 @@
         <v>8875</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4272</v>
+        <v>3975</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16532</v>
+        <v>16714</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01074626672423782</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005172255133443262</v>
+        <v>0.004813131160412376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02001729210699216</v>
+        <v>0.02023759691990426</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -3196,19 +3196,19 @@
         <v>21471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13608</v>
+        <v>13354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31916</v>
+        <v>31596</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01086841430074795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006888512442290838</v>
+        <v>0.006759705524872961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01615585353224254</v>
+        <v>0.01599404510120953</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1137042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1128114</v>
+        <v>1127799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1142509</v>
+        <v>1142670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890438374671519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9812775431588903</v>
+        <v>0.9810034481262415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9937985430355322</v>
+        <v>0.9939389860136806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>789</v>
@@ -3246,19 +3246,19 @@
         <v>817001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>809344</v>
+        <v>809162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821604</v>
+        <v>821901</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9892537332757622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9799827078930079</v>
+        <v>0.9797624030800957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9948277448665576</v>
+        <v>0.9951868688395875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1879</v>
@@ -3267,19 +3267,19 @@
         <v>1954043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1943598</v>
+        <v>1943918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1961906</v>
+        <v>1962160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9891315856992521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9838441464677574</v>
+        <v>0.9840059548987904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931114875577092</v>
+        <v>0.9932402944751271</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>2625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7071</v>
+        <v>7165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004229791104992542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001343178049509691</v>
+        <v>0.001352678788657234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01139148137778549</v>
+        <v>0.01154363321009875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3392,19 +3392,19 @@
         <v>13406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7123</v>
+        <v>7840</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21306</v>
+        <v>23208</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01815918585669285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00964892877710888</v>
+        <v>0.01062018395129627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02886084903417659</v>
+        <v>0.03143632084588571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3413,19 +3413,19 @@
         <v>16031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10236</v>
+        <v>9619</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26262</v>
+        <v>25735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0117968788019952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007532626892167902</v>
+        <v>0.007078374470703494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01932552882424367</v>
+        <v>0.01893719340433682</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>618081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>613635</v>
+        <v>613541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619872</v>
+        <v>619866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9957702088950074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9886085186222145</v>
+        <v>0.9884563667898997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9986568219504903</v>
+        <v>0.9986473212113428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>686</v>
@@ -3463,19 +3463,19 @@
         <v>724838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>716938</v>
+        <v>715036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731121</v>
+        <v>730404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9818408141433072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9711391509658234</v>
+        <v>0.9685636791541142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9903510712228911</v>
+        <v>0.9893798160487037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1280</v>
@@ -3484,19 +3484,19 @@
         <v>1342919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1332688</v>
+        <v>1333215</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1348714</v>
+        <v>1349331</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9882031211980048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9806744711757563</v>
+        <v>0.9810628065956636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9924673731078322</v>
+        <v>0.9929216255292965</v>
       </c>
     </row>
     <row r="18">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4466</v>
+        <v>5012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003125099545167199</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01555379957151189</v>
+        <v>0.01745600233200414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -3609,19 +3609,19 @@
         <v>18366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10675</v>
+        <v>10912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29820</v>
+        <v>29923</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01697354120176843</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009865539803901889</v>
+        <v>0.01008445042397201</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02755946569419465</v>
+        <v>0.02765469384822055</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -3630,19 +3630,19 @@
         <v>19263</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11181</v>
+        <v>11303</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29518</v>
+        <v>29149</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0140692175440739</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008166175034257008</v>
+        <v>0.008255690608149206</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.021558906029087</v>
+        <v>0.02128980376045442</v>
       </c>
     </row>
     <row r="20">
@@ -3659,7 +3659,7 @@
         <v>286248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282679</v>
+        <v>282133</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3668,7 +3668,7 @@
         <v>0.9968749004548328</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9844462004284881</v>
+        <v>0.9825439976679955</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3680,19 +3680,19 @@
         <v>1063659</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1052205</v>
+        <v>1052102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1071350</v>
+        <v>1071113</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9830264587982316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9724405343058051</v>
+        <v>0.9723453061517793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9901344601960981</v>
+        <v>0.9899155495760279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1247</v>
@@ -3701,19 +3701,19 @@
         <v>1349907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1339652</v>
+        <v>1340021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357989</v>
+        <v>1357867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9859307824559261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9784410939709126</v>
+        <v>0.9787101962395452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9918338249657428</v>
+        <v>0.9917443093918505</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>35461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25862</v>
+        <v>25493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49290</v>
+        <v>49254</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01047356976005516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007638574846803502</v>
+        <v>0.0075296703733128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01455808550974454</v>
+        <v>0.01454744193085881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -3826,19 +3826,19 @@
         <v>56443</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42911</v>
+        <v>42174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76298</v>
+        <v>72851</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01598221368415752</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01215069237567064</v>
+        <v>0.0119418514050461</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02160444606418518</v>
+        <v>0.0206282180441619</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -3847,19 +3847,19 @@
         <v>91903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74915</v>
+        <v>74254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114042</v>
+        <v>113275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01328597537971324</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01083011422106051</v>
+        <v>0.01073447758367053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01648643418123052</v>
+        <v>0.01637560247394287</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3350261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3336432</v>
+        <v>3336468</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3359860</v>
+        <v>3360229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9895264302399448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9854419144902554</v>
+        <v>0.9854525580691412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9923614251531966</v>
+        <v>0.9924703296266872</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3273</v>
@@ -3897,19 +3897,19 @@
         <v>3475153</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455298</v>
+        <v>3458745</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3488685</v>
+        <v>3489422</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9840177863158425</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9783955539358148</v>
+        <v>0.9793717819558381</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9878493076243294</v>
+        <v>0.9880581485949539</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6462</v>
@@ -3918,19 +3918,19 @@
         <v>6825415</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6803276</v>
+        <v>6804043</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6842403</v>
+        <v>6843064</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9867140246202868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9835135658187698</v>
+        <v>0.983624397526057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9891698857789396</v>
+        <v>0.9892655224163294</v>
       </c>
     </row>
     <row r="24">
